--- a/SchedulingData/dynamic9/pso/scheduling2_2.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>237.5</v>
+        <v>221.98</v>
       </c>
       <c r="D2" t="n">
-        <v>295.5</v>
+        <v>296.48</v>
       </c>
       <c r="E2" t="n">
-        <v>12.12</v>
+        <v>11.512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>215.72</v>
+        <v>296.48</v>
       </c>
       <c r="D3" t="n">
-        <v>256.88</v>
+        <v>351.08</v>
       </c>
       <c r="E3" t="n">
-        <v>14.312</v>
+        <v>7.672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>205.58</v>
+        <v>200.46</v>
       </c>
       <c r="D4" t="n">
-        <v>279.64</v>
+        <v>248.9</v>
       </c>
       <c r="E4" t="n">
-        <v>13.156</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>295.5</v>
+        <v>248.9</v>
       </c>
       <c r="D5" t="n">
-        <v>348.96</v>
+        <v>307.1</v>
       </c>
       <c r="E5" t="n">
-        <v>9.384</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>256.88</v>
+        <v>267.9</v>
       </c>
       <c r="D6" t="n">
-        <v>316.26</v>
+        <v>322.9</v>
       </c>
       <c r="E6" t="n">
-        <v>10.504</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>204.18</v>
+        <v>351.08</v>
       </c>
       <c r="D7" t="n">
-        <v>291.38</v>
+        <v>391.6</v>
       </c>
       <c r="E7" t="n">
-        <v>12.552</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>246</v>
+        <v>236.06</v>
       </c>
       <c r="D8" t="n">
-        <v>278.9</v>
+        <v>306.72</v>
       </c>
       <c r="E8" t="n">
-        <v>10.78</v>
+        <v>11.468</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>279.64</v>
+        <v>241.62</v>
       </c>
       <c r="D9" t="n">
-        <v>331.64</v>
+        <v>295.34</v>
       </c>
       <c r="E9" t="n">
-        <v>10.096</v>
+        <v>9.776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>316.26</v>
+        <v>295.34</v>
       </c>
       <c r="D10" t="n">
-        <v>360.02</v>
+        <v>339</v>
       </c>
       <c r="E10" t="n">
-        <v>7.748</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>348.96</v>
+        <v>306.72</v>
       </c>
       <c r="D11" t="n">
-        <v>401.18</v>
+        <v>345.58</v>
       </c>
       <c r="E11" t="n">
-        <v>6.792</v>
+        <v>8.712</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>247.12</v>
+        <v>345.58</v>
       </c>
       <c r="D12" t="n">
-        <v>280.82</v>
+        <v>380.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.548</v>
+        <v>5.904</v>
       </c>
     </row>
     <row r="13">
@@ -675,112 +675,93 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>331.64</v>
+        <v>339</v>
       </c>
       <c r="D13" t="n">
-        <v>380.82</v>
+        <v>376.9</v>
       </c>
       <c r="E13" t="n">
-        <v>7.288</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>280.82</v>
+        <v>239.08</v>
       </c>
       <c r="D14" t="n">
-        <v>349.34</v>
+        <v>282.56</v>
       </c>
       <c r="E14" t="n">
-        <v>8.795999999999999</v>
+        <v>13.424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>278.9</v>
+        <v>322.9</v>
       </c>
       <c r="D15" t="n">
-        <v>344.12</v>
+        <v>369.8</v>
       </c>
       <c r="E15" t="n">
-        <v>7.868</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>360.02</v>
+        <v>369.8</v>
       </c>
       <c r="D16" t="n">
-        <v>406</v>
+        <v>426.62</v>
       </c>
       <c r="E16" t="n">
-        <v>4.78</v>
+        <v>4.688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>344.12</v>
+        <v>282.56</v>
       </c>
       <c r="D17" t="n">
-        <v>404.02</v>
+        <v>328.64</v>
       </c>
       <c r="E17" t="n">
-        <v>5.008</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>pond41</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>349.34</v>
-      </c>
-      <c r="D18" t="n">
-        <v>397.58</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.092</v>
+        <v>10.456</v>
       </c>
     </row>
   </sheetData>
